--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petur1/git/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="988"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -78,36 +90,23 @@
   </si>
   <si>
     <t>JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>Ehdollisesti hyväksytty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -135,104 +134,334 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="1" width="9.37407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3703703703704"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="1" width="9.37407407407407"/>
-    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="6.9962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="6.9962962962963"/>
+    <col min="1" max="257" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -261,16 +490,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -288,23 +520,26 @@
         <v>16</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -317,8 +552,9 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -331,8 +567,9 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -345,8 +582,9 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -359,8 +597,9 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -373,8 +612,9 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -387,8 +627,9 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -401,8 +642,9 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -415,16 +657,15 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="tuomas.hakkarainen@example.com"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -64,6 +64,33 @@
     <t xml:space="preserve">Julkaistavissa</t>
   </si>
   <si>
+    <t xml:space="preserve">Asiointikieli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puhelinnumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osoite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postinumero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postitoimipaikka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asuinmaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansalaisuus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotikunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hakkarainen</t>
   </si>
   <si>
@@ -92,15 +119,34 @@
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">045123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testitie 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -152,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -167,13 +213,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -200,7 +239,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,11 +252,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,7 +268,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,16 +293,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="258" min="1" style="1" width="9.15185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.15185185185185"/>
+    <col collapsed="false" hidden="false" max="258" min="1" style="1" width="9.83333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.83333333333333"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -301,172 +348,298 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="2" t="n">
         <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">Kotikunta</t>
   </si>
   <si>
+    <t xml:space="preserve">Toisen asteen pohjakoulutus suoritettu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyllä</t>
   </si>
 </sst>
 </file>
@@ -239,12 +245,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,353 +303,369 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="258" min="1" style="1" width="9.83333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="9.83333333333333"/>
+    <col collapsed="false" hidden="false" max="22" min="1" style="1" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="8.46666666666667"/>
+    <col collapsed="false" hidden="false" max="259" min="24" style="1" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="10.5185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="2" t="n">
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="S2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
+      <c r="W2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t xml:space="preserve">Sukunimi</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Ilmoittautumistila</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukuvuosimaksuvelvollisuus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Julkaistavissa</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">EI_TEHTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
@@ -303,18 +309,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X4" activeCellId="0" sqref="X4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="22" min="1" style="1" width="10.5185185185185"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="2" width="8.46666666666667"/>
-    <col collapsed="false" hidden="false" max="259" min="24" style="1" width="10.5185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="260" style="0" width="10.5185185185185"/>
+    <col collapsed="false" hidden="false" max="23" min="1" style="1" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.14444444444444"/>
+    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="11.3074074074074"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -360,13 +366,13 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -390,73 +396,79 @@
       <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3" t="n">
         <v>99</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="R2" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="S2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="T2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="U2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="4" t="s">
-        <v>39</v>
+      <c r="X2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -474,7 +486,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="9"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -484,6 +496,7 @@
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -500,7 +513,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -510,6 +523,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
@@ -526,7 +540,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
@@ -536,6 +550,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
@@ -552,7 +567,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
@@ -562,6 +577,7 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
@@ -578,7 +594,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="8"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
@@ -588,6 +604,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -604,7 +621,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
@@ -614,6 +631,7 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
@@ -630,7 +648,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="8"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
@@ -640,6 +658,7 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
@@ -656,7 +675,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
@@ -666,6 +685,7 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -673,7 +693,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">EI_TEHTY</t>
   </si>
   <si>
-    <t xml:space="preserve">EI</t>
+    <t xml:space="preserve">NOT_REQUIRED</t>
   </si>
   <si>
     <t xml:space="preserve">JULKAISTAVISSA</t>
@@ -311,16 +311,16 @@
   </sheetPr>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="23" min="1" style="1" width="11.3074074074074"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.14444444444444"/>
-    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="11.3074074074074"/>
-    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="11.3074074074074"/>
+    <col collapsed="false" hidden="false" max="23" min="1" style="1" width="12.2555555555556"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.92222222222222"/>
+    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="12.2555555555556"/>
+    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="12.2555555555556"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommi.helander/src/oph/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,167 +30,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Sukunimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etunimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henkilötunnus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sähköposti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syntymäaika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sukupuoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakija-oid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Äidinkieli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakemuksentila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ehdollisesti hyväksytty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyväksymiskirje lähetetty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vastaanottotila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilmoittautumistila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukuvuosimaksuvelvollisuus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julkaistavissa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asiointikieli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puhelinnumero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osoite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postinumero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postitoimipaikka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asuinmaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kansalaisuus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotikunta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toisen asteen pohjakoulutus suoritettu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pohjakoulutus maa (toinen aste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hakkarainen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tuomas.hakkarainen@example.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYVAKSYTTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KESKEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI_TEHTY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOT_REQUIRED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JULKAISTAVISSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">045123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testitie 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helsinki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyllä</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+  <si>
+    <t>Sukunimi</t>
+  </si>
+  <si>
+    <t>Etunimi</t>
+  </si>
+  <si>
+    <t>Henkilötunnus</t>
+  </si>
+  <si>
+    <t>Sähköposti</t>
+  </si>
+  <si>
+    <t>Syntymäaika</t>
+  </si>
+  <si>
+    <t>Sukupuoli</t>
+  </si>
+  <si>
+    <t>Hakija-oid</t>
+  </si>
+  <si>
+    <t>Äidinkieli</t>
+  </si>
+  <si>
+    <t>Hakemuksentila</t>
+  </si>
+  <si>
+    <t>Ehdollisesti hyväksytty</t>
+  </si>
+  <si>
+    <t>Hyväksymiskirje lähetetty</t>
+  </si>
+  <si>
+    <t>Vastaanottotila</t>
+  </si>
+  <si>
+    <t>Ilmoittautumistila</t>
+  </si>
+  <si>
+    <t>Lukuvuosimaksuvelvollisuus</t>
+  </si>
+  <si>
+    <t>Julkaistavissa</t>
+  </si>
+  <si>
+    <t>Asiointikieli</t>
+  </si>
+  <si>
+    <t>Puhelinnumero</t>
+  </si>
+  <si>
+    <t>Osoite</t>
+  </si>
+  <si>
+    <t>Postinumero</t>
+  </si>
+  <si>
+    <t>Postitoimipaikka</t>
+  </si>
+  <si>
+    <t>Asuinmaa</t>
+  </si>
+  <si>
+    <t>Kansalaisuus</t>
+  </si>
+  <si>
+    <t>Kotikunta</t>
+  </si>
+  <si>
+    <t>Toisen asteen pohjakoulutus suoritettu</t>
+  </si>
+  <si>
+    <t>Pohjakoulutus maa (toinen aste)</t>
+  </si>
+  <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
+    <t>Tuomas</t>
+  </si>
+  <si>
+    <t>tuomas.hakkarainen@example.com</t>
+  </si>
+  <si>
+    <t>1.1.1901</t>
+  </si>
+  <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>HYVAKSYTTY</t>
+  </si>
+  <si>
+    <t>Ei</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
+  </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
+  <si>
+    <t>NOT_REQUIRED</t>
+  </si>
+  <si>
+    <t>JULKAISTAVISSA</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>045123456</t>
+  </si>
+  <si>
+    <t>Testitie 1</t>
+  </si>
+  <si>
+    <t>00100</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Kyllä</t>
+  </si>
+  <si>
+    <t>Hyväksymisen ehto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,119 +204,345 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="23" min="1" style="1" width="12.2555555555556"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="9.92222222222222"/>
-    <col collapsed="false" hidden="false" max="260" min="25" style="1" width="12.2555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="261" style="0" width="12.2555555555556"/>
+    <col min="1" max="9" width="8.625" style="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
+    <col min="12" max="24" width="8.625" style="1"/>
+    <col min="25" max="25" width="8.625" style="2"/>
+    <col min="26" max="26" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -354,53 +573,56 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
@@ -418,7 +640,7 @@
         <v>29</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>99</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -428,50 +650,51 @@
         <v>31</v>
       </c>
       <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -487,7 +710,7 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
@@ -497,8 +720,9 @@
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -514,7 +738,7 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
@@ -524,8 +748,9 @@
       <c r="W4" s="9"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -541,7 +766,7 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
+      <c r="P5" s="8"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
@@ -551,8 +776,9 @@
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -568,7 +794,7 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
@@ -578,8 +804,9 @@
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -595,7 +822,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
@@ -605,8 +832,9 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -622,7 +850,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
-      <c r="P8" s="9"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
@@ -632,8 +860,9 @@
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -649,7 +878,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
-      <c r="P9" s="9"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
@@ -659,8 +888,9 @@
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -676,7 +906,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="9"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
@@ -686,16 +916,15 @@
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="tuomas.hakkarainen@example.com"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>

--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="39660" windowHeight="16260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Sukunimi</t>
   </si>
@@ -160,27 +168,17 @@
   <si>
     <t>Kyllä</t>
   </si>
+  <si>
+    <t>Maksun tila</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -239,61 +237,102 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -495,7 +534,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -514,7 +553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -544,7 +583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -570,7 +609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -596,7 +635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -648,7 +687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -674,7 +713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -700,7 +739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,7 +765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -752,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,9 +804,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -784,7 +829,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -803,7 +848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -855,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,9 +1095,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1066,7 +1117,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1085,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,170 +1387,156 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.625" style="1" customWidth="1"/>
-    <col min="30" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="12" max="257" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:30" ht="17" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:30" ht="17" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
         <v>99</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="6"/>
@@ -1507,50 +1544,51 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" t="s" s="2">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="Q2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" t="s" s="2">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="U2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U2" t="s" s="2">
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s" s="2">
+      <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s" s="2">
+      <c r="X2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s" s="2">
+      <c r="Y2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s" s="2">
+      <c r="Z2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s" s="2">
+      <c r="AA2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" t="s" s="2">
+      <c r="AB2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" t="s" s="2">
+      <c r="AC2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s" s="2">
+      <c r="AD2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:30" ht="19" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1580,8 +1618,9 @@
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:30" ht="19" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1611,8 +1650,9 @@
       <c r="AA4" s="7"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:30" ht="19" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1642,8 +1682,9 @@
       <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:30" ht="19" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1673,8 +1714,9 @@
       <c r="AA6" s="7"/>
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1704,8 +1746,9 @@
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1735,8 +1778,9 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1766,8 +1810,9 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1797,15 +1842,21 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
+++ b/src/test/resources/erillishaku_tuntemattomalla_aidinkielella.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terip1/IdeaProjects/Opetushallitus/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="39660" windowHeight="16260"/>
+    <workbookView xWindow="36560" yWindow="3140" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -124,9 +132,6 @@
     </r>
   </si>
   <si>
-    <t>1.1.1901</t>
-  </si>
-  <si>
     <t>MIES</t>
   </si>
   <si>
@@ -170,6 +175,9 @@
   </si>
   <si>
     <t>Maksun tila</t>
+  </si>
+  <si>
+    <t>01.01.1901</t>
   </si>
 </sst>
 </file>
@@ -328,6 +336,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1406,21 +1419,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="8.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
-    <col min="12" max="257" width="8.625" style="1" customWidth="1"/>
+    <col min="12" max="30" width="8.625" style="1" customWidth="1"/>
+    <col min="31" max="257" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17" customHeight="1">
+    <row r="1" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>18</v>
@@ -1512,7 +1526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="17" customHeight="1">
+    <row r="2" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1524,20 +1538,20 @@
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5">
         <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1545,50 +1559,50 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" ht="19" customHeight="1">
+    <row r="3" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1620,7 +1634,7 @@
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
     </row>
-    <row r="4" spans="1:30" ht="19" customHeight="1">
+    <row r="4" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1652,7 +1666,7 @@
       <c r="AC4" s="7"/>
       <c r="AD4" s="7"/>
     </row>
-    <row r="5" spans="1:30" ht="19" customHeight="1">
+    <row r="5" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1684,7 +1698,7 @@
       <c r="AC5" s="7"/>
       <c r="AD5" s="7"/>
     </row>
-    <row r="6" spans="1:30" ht="19" customHeight="1">
+    <row r="6" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1716,7 +1730,7 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="19" customHeight="1">
+    <row r="7" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1748,7 +1762,7 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="19" customHeight="1">
+    <row r="8" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1780,7 +1794,7 @@
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="19" customHeight="1">
+    <row r="9" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1812,7 +1826,7 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="19" customHeight="1">
+    <row r="10" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1853,10 +1867,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>